--- a/resources/Font 0.xlsx
+++ b/resources/Font 0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="25005" windowHeight="14235"/>
+    <workbookView xWindow="14880" yWindow="0" windowWidth="25005" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1143,9 +1143,10 @@
       <c r="V10" s="3"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="19"/>
+      <c r="AB10" s="15"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
@@ -1224,9 +1225,11 @@
       <c r="U11" s="2"/>
       <c r="V11" s="7"/>
       <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
       <c r="Y11" s="2"/>
+      <c r="Z11" s="1"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="19"/>
+      <c r="AB11" s="13"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -1304,10 +1307,12 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="7"/>
+      <c r="W12" s="1"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="19"/>
+      <c r="AB12" s="13"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -1386,10 +1391,11 @@
       <c r="U13" s="1"/>
       <c r="V13" s="7"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="19"/>
+      <c r="X13" s="2"/>
       <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="19"/>
+      <c r="AB13" s="13"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -1467,10 +1473,11 @@
       <c r="U14" s="2"/>
       <c r="V14" s="7"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="19"/>
+      <c r="X14" s="2"/>
       <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="19"/>
+      <c r="AB14" s="13"/>
       <c r="AC14" s="7"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
@@ -1550,7 +1557,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="13"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -1631,8 +1638,9 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="19"/>
+      <c r="AB16" s="13"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -1713,8 +1721,9 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
       <c r="AA17" s="11"/>
-      <c r="AB17" s="19"/>
+      <c r="AB17" s="14"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="10"/>
       <c r="AE17" s="11"/>
@@ -2275,7 +2284,7 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
+      <c r="AC29" s="4"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="18"/>
       <c r="AF29" s="5"/>
@@ -2332,7 +2341,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="16"/>
-      <c r="AA30" s="2"/>
+      <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="8"/>
@@ -2391,7 +2400,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="16"/>
-      <c r="AA31" s="2"/>
+      <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="8"/>
@@ -2509,8 +2518,8 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="16"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="8"/>
       <c r="AE33" s="7"/>
@@ -2568,8 +2577,8 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="16"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="16"/>
@@ -2628,8 +2637,8 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="16"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="8"/>
       <c r="AE35" s="16"/>
